--- a/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.123467283777416</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.69884530854868</v>
+        <v>1.698845308548674</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.77445346698965</v>
@@ -664,7 +664,7 @@
         <v>0.8754059164467448</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.49335055581144</v>
+        <v>1.493350555811435</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.023169322482185</v>
+        <v>4.483245936293065</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.726081752213027</v>
+        <v>-5.139254089555094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.795243912799216</v>
+        <v>-3.900069827814676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4648372586724534</v>
+        <v>0.01283748178352655</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.68714300403913</v>
+        <v>-3.288399249333589</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.750196319936699</v>
+        <v>-1.952743758670132</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.507749067550265</v>
+        <v>3.527719007252168</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.41186934928266</v>
+        <v>-2.402390950743224</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.824793185844271</v>
+        <v>-1.587857377428272</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.90784189963657</v>
+        <v>14.79800073372845</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.142284967976474</v>
+        <v>5.70286659013391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.581440364407964</v>
+        <v>5.672531036370736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.247830452575597</v>
+        <v>8.403447436000414</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.556879871733852</v>
+        <v>4.941948498255721</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.034978518987619</v>
+        <v>5.362874202334649</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.16895224014884</v>
+        <v>10.47320579968512</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.468519239912781</v>
+        <v>4.243754011579108</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.643777581687622</v>
+        <v>4.594417679582125</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.08274878731924665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1251281556261555</v>
+        <v>0.1251281556261551</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3912832519197214</v>
@@ -769,7 +769,7 @@
         <v>0.0505622594362961</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.08625390440443578</v>
+        <v>0.08625390440443546</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1603606553762713</v>
+        <v>0.1847908763911442</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1925333296983858</v>
+        <v>-0.2126028706330076</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1552849995241818</v>
+        <v>-0.1571674538283827</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02373953091139087</v>
+        <v>-0.001163043360638502</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1812534762757969</v>
+        <v>-0.2140861849985795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1176739738282418</v>
+        <v>-0.1200422550329062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1814566477896595</v>
+        <v>0.1854915872136937</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1275190703178207</v>
+        <v>-0.1308309797087501</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.09613391145253411</v>
+        <v>-0.08232931359471275</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7683169978586235</v>
+        <v>0.7793578431337325</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2663378222479288</v>
+        <v>0.3105797711224623</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3504051104212907</v>
+        <v>0.3068616686665945</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7435403320736181</v>
+        <v>0.7481597737065298</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4841069687973346</v>
+        <v>0.4338810541934264</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.443641517595719</v>
+        <v>0.4717067418197469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.650539594583003</v>
+        <v>0.6613664250977613</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2793657129159832</v>
+        <v>0.2727901289412641</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3023521640497527</v>
+        <v>0.2910321025007404</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.71899008074996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.964894915662463</v>
+        <v>-5.964894915662461</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7.437181965870088</v>
@@ -869,7 +869,7 @@
         <v>0.8364828599155355</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.006915743508710548</v>
+        <v>0.00691574350870916</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.630477709358362</v>
@@ -878,7 +878,7 @@
         <v>-1.755148581281368</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.76770297400194</v>
+        <v>-2.767702974001946</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.322349983007608</v>
+        <v>0.9616756057999045</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.525573613270014</v>
+        <v>-8.698630663883499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.725736673155453</v>
+        <v>-9.915396394195424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.234935673453336</v>
+        <v>4.16088437327185</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.343756758372601</v>
+        <v>-2.697729756858701</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.738497299726242</v>
+        <v>-2.834229375101411</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.833314948106791</v>
+        <v>3.67429368273694</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.56091215194667</v>
+        <v>-4.178761807960609</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.036319787449678</v>
+        <v>-5.395707723138518</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.588456418537803</v>
+        <v>9.728759742693804</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5124142402288889</v>
+        <v>-0.6305622955712938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.817717669270465</v>
+        <v>-2.118408298197461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.04335526757747</v>
+        <v>11.2911190668318</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.316066448624299</v>
+        <v>4.297688112567347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.81530325745572</v>
+        <v>2.665631511994936</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.507178000494353</v>
+        <v>9.301063843049647</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8913320612390686</v>
+        <v>1.037754412567606</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.3197388473032671</v>
+        <v>-0.4732115928875478</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.227225812529768</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.287217830653012</v>
+        <v>-0.2872178306530118</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.6115379242088972</v>
@@ -974,7 +974,7 @@
         <v>0.06878156190564881</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0005686615507172438</v>
+        <v>0.0005686615507171297</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4084520664714013</v>
@@ -983,7 +983,7 @@
         <v>-0.108121027837389</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1704966140696871</v>
+        <v>-0.1704966140696874</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05922547671394282</v>
+        <v>0.04268043812043699</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3731358427534577</v>
+        <v>-0.3865999141924721</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4164095193859207</v>
+        <v>-0.4310501055614656</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2233740512653838</v>
+        <v>0.2922478289271937</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1759313567040915</v>
+        <v>-0.1977663664333673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1956754312704956</v>
+        <v>-0.1975280629454233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2106498599395935</v>
+        <v>0.2079903954028006</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.260123517058416</v>
+        <v>-0.2387150069596294</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2849698812898722</v>
+        <v>-0.3027364779163311</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5281257246137366</v>
+        <v>0.5137428354765176</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02767783976354829</v>
+        <v>-0.03349105797560677</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.09627558726476244</v>
+        <v>-0.1139096214231407</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.052740906036965</v>
+        <v>1.097095062740545</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4222393685157454</v>
+        <v>0.4089591750145619</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.274776457578041</v>
+        <v>0.2571348640608303</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6233599707030297</v>
+        <v>0.628002862790275</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06486791623494824</v>
+        <v>0.07596291573280753</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.01606960309996561</v>
+        <v>-0.03286297999543911</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2716044424513187</v>
+        <v>-0.09018383686695265</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.956107338544874</v>
+        <v>-6.103871405294169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.62654907124372</v>
+        <v>-12.58848457663116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.882496521066549</v>
+        <v>-6.076291280022751</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.30890975898455</v>
+        <v>-10.03450654964627</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.18501432705659</v>
+        <v>-12.35261238620666</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.901075359222003</v>
+        <v>-2.06579296610709</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.505254485542919</v>
+        <v>-6.616633009485502</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-11.0925560328492</v>
+        <v>-11.31765816105122</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.783811490445707</v>
+        <v>9.581563598999415</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.015395934048803</v>
+        <v>3.862972387501117</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.936957375307714</v>
+        <v>-4.02332335798758</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.453747909260722</v>
+        <v>2.709905751950262</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.877438546589748</v>
+        <v>-1.97601004410162</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.103367461316394</v>
+        <v>-5.045085877715733</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.758233637295981</v>
+        <v>4.916462212236275</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.2445773958270381</v>
+        <v>-0.2421392345764319</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-5.367431745803194</v>
+        <v>-5.49270008928586</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1864090431213982</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4492671308075822</v>
+        <v>-0.4492671308075823</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.009043428547837103</v>
+        <v>-0.006126845530573686</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2671372827045238</v>
+        <v>-0.2682133538684797</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5499865562616481</v>
+        <v>-0.5527315089815048</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3017349904906734</v>
+        <v>-0.3011874657390774</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5058682810683629</v>
+        <v>-0.5121441261410117</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.616128924119126</v>
+        <v>-0.6095219512467115</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09081435700011845</v>
+        <v>-0.1027034448610071</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.323217230183821</v>
+        <v>-0.3285496100167274</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5441675373165885</v>
+        <v>-0.5485371394658398</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5955933604471262</v>
+        <v>0.5487577875862136</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2179336183027799</v>
+        <v>0.2156888339993756</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2257806250744617</v>
+        <v>-0.2385886756747991</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1556421225212105</v>
+        <v>0.17257937531154</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1257049087268929</v>
+        <v>-0.1243555394501369</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3440786495868354</v>
+        <v>-0.3213137005995195</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2759554424574325</v>
+        <v>0.2869695319117574</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.01465487773330595</v>
+        <v>-0.01505142726921993</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3122121333018202</v>
+        <v>-0.3315049617899871</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.237382934492582</v>
+        <v>-2.996473619326527</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.827335018208232</v>
+        <v>-5.365266026404417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.223165136403331</v>
+        <v>-4.395934496886998</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.661255468203111</v>
+        <v>-2.847632097991556</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.781286431801179</v>
+        <v>-6.388519094135746</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.758191519197689</v>
+        <v>-8.762781088411122</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.11167448453471</v>
+        <v>-1.970803788787849</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.005665587464512</v>
+        <v>-5.004574927161297</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.645156109658077</v>
+        <v>-5.619592153121832</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.239211781958336</v>
+        <v>4.643295654626042</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.778445665768878</v>
+        <v>2.106332115116025</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.318988490315324</v>
+        <v>3.031441624417181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.467802238220364</v>
+        <v>4.279941528701464</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4507364785117431</v>
+        <v>0.647210757769499</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.727771245151822</v>
+        <v>-2.570907563135944</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.307120660765006</v>
+        <v>3.30668567876464</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2582556193958441</v>
+        <v>0.09532106547596396</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.092159223445661</v>
+        <v>-1.024952810656639</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1854366006647336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3477069713927699</v>
+        <v>-0.3477069713927698</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.03990489907408037</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1605267386301575</v>
+        <v>-0.1535256882377609</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.288457530854827</v>
+        <v>-0.2746304366507876</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2134168251992401</v>
+        <v>-0.2172350720137292</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1567111686872596</v>
+        <v>-0.1624694926841034</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3772876970520798</v>
+        <v>-0.3616672197105217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4778248442426352</v>
+        <v>-0.4814188889596498</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1118628218007731</v>
+        <v>-0.1079190894810759</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2768573383152497</v>
+        <v>-0.2795345088768106</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3066105186440264</v>
+        <v>-0.3073679106527532</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2681841874224289</v>
+        <v>0.2900035957522053</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1058299096231519</v>
+        <v>0.1305692524705435</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2099928853129431</v>
+        <v>0.1896506087865397</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3123497062482958</v>
+        <v>0.3084542072023926</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03201629265875124</v>
+        <v>0.03548722158638334</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1932605555559002</v>
+        <v>-0.1800420846886603</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2148718933001101</v>
+        <v>0.2072866289035378</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01806659483242731</v>
+        <v>0.006350453785448074</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06989231480567877</v>
+        <v>-0.06485629779334963</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.093417620916751</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.581397609873749</v>
+        <v>-3.581397609873746</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.859110675924617</v>
@@ -1511,7 +1511,7 @@
         <v>-1.661376241236531</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.181817647550869</v>
+        <v>-3.18181764755087</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.818526200981129</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.441837664380575</v>
+        <v>2.526283798424032</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.196270178036466</v>
+        <v>-4.239578332941632</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.656659695572927</v>
+        <v>-5.649228821145976</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8300133387835645</v>
+        <v>0.9323184346433816</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.626891876020676</v>
+        <v>-3.381292894898273</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.859826133827525</v>
+        <v>-4.832171335167642</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.450765240444357</v>
+        <v>2.258969985263638</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.202769805933356</v>
+        <v>-3.20028011311105</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.615165249552811</v>
+        <v>-4.643120880567579</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.987389910459092</v>
+        <v>7.04373214739018</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1145138160191904</v>
+        <v>0.284727641661327</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.545697884628664</v>
+        <v>-1.267650113236189</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.897305571107363</v>
+        <v>4.707446834652216</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1747080536926164</v>
+        <v>0.1306963203496677</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.655397088482176</v>
+        <v>-1.569512170775431</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.408143647270076</v>
+        <v>5.22333300499288</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.3470880871527883</v>
+        <v>-0.4949640655596172</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.068966881775086</v>
+        <v>-2.140419329854997</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1049392961046667</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.179529082250919</v>
+        <v>-0.1795290822509189</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1946690721652251</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1131185910787708</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2166413124414488</v>
+        <v>-0.2166413124414489</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2223561497077017</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1136020457940066</v>
+        <v>0.1195050484597701</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1960247230186909</v>
+        <v>-0.2022811622549323</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2677131077173472</v>
+        <v>-0.2659235311998909</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.05121673589290109</v>
+        <v>0.05913733016580972</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2285764833394494</v>
+        <v>-0.2173796798696364</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3054375841108202</v>
+        <v>-0.3030730398200419</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1400280046402493</v>
+        <v>0.1270862712442341</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1776058188176548</v>
+        <v>-0.1796200079600967</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2574898488516553</v>
+        <v>-0.2587277149653288</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3694990074054292</v>
+        <v>0.380711657392839</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.007336043627512865</v>
+        <v>0.01367798984183652</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.08344099432221824</v>
+        <v>-0.06813059638238793</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3539136197046651</v>
+        <v>0.3423562259006121</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01524725373676152</v>
+        <v>0.009889435073494582</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1209342677450748</v>
+        <v>-0.1111817968700364</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3362245118551864</v>
+        <v>0.3196311344162525</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.02150115055390918</v>
+        <v>-0.02706880727059171</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1272401069327515</v>
+        <v>-0.1301842705002764</v>
       </c>
     </row>
     <row r="34">
